--- a/тв-приставки.xlsx
+++ b/тв-приставки.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:BE33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Ссылка</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,182 +446,277 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>Наименование</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>images</t>
+          <t>Артикул</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>in_stock</t>
+          <t>Изобр. 1 (ориг)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>Изобр. 1 (мин)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>short_desc</t>
+          <t>Изобр. 2 (ориг)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Тип товара</t>
+          <t>Изобр. 2 (мин)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Срок службы</t>
+          <t>Изобр. 3 (ориг)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Срок гарантии</t>
+          <t>Изобр. 3 (мин)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Бренд</t>
+          <t>Изобр. 4 (ориг)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Гарантия от производителя</t>
+          <t>Изобр. 4 (мин)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Страна производитель</t>
+          <t>Изобр. 5 (ориг)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Цвет</t>
+          <t>Изобр. 5 (мин)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>mods</t>
+          <t>Изобр. 6 (ориг)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>delivery</t>
+          <t>Изобр. 6 (мин)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>full_desc</t>
+          <t>Изобр. 7 (ориг)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>full_desc_html</t>
+          <t>Изобр. 7 (мин)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Размер экрана</t>
+          <t>Изобр. 8 (ориг)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Процессор</t>
+          <t>Изобр. 8 (мин)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Максимальная частота процессора</t>
+          <t>Изобр. 9 (ориг)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Видеопроцессор</t>
+          <t>Изобр. 9 (мин)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Оперативная память</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Встроенная память</t>
+          <t>Цена</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Поддержка карт памяти</t>
+          <t>Цена со скидкой</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Беспроводные подключения</t>
+          <t>Короткое описание</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Разъемы</t>
+          <t>Характеристика: Тип товара</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Емкость аккумулятора</t>
+          <t>Характеристика: Срок службы</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Размеры</t>
+          <t>Характеристика: Срок гарантии</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Вес</t>
+          <t>Характеристика: Бренд</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Комплектация</t>
+          <t>Характеристика: Гарантия от производителя</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Программная платформа</t>
+          <t>Характеристика: Страна производитель</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Разрешение</t>
+          <t>Характеристика: Цвет</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Видеодекодер</t>
+          <t>Модификации</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Аудиодекодер</t>
+          <t>Доставка</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Форматы видео</t>
+          <t>Полное описание (текст)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Форматы аудио</t>
+          <t>Полное описание (html)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Форматы изображений</t>
+          <t>Характеристика: Размер экрана</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Процессор</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Максимальная частота процессора</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Видеопроцессор</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Оперативная память</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Встроенная память</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Поддержка карт памяти</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Беспроводные подключения</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Разъемы</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Емкость аккумулятора</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Размеры</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Вес</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Комплектация</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Программная платформа</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Разрешение</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Видеодекодер</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Аудиодекодер</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Форматы видео</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Форматы аудио</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Характеристика: Форматы изображений</t>
         </is>
       </c>
     </row>
@@ -638,67 +733,160 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Геймпад Sony DualSense White/Black (Белый/Черный) EAC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>12451</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51228/51228.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51228/51228.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51229/51229.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51229/51229.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51230/51230.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51230/51230.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51231/51231.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51231/51231.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51232/51232.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51232/51232.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51233/51233.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51233/51233.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51234/51234.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51234/51234.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51235/51235.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51235/51235.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51236/51236.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51236/51236.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51228/51228.970.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51228/51228.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51229/51229.970.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51229/51229.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51230/51230.970.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51230/51230.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51231/51231.970.jpg</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51231/51231.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51232/51232.970.jpg</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51232/51232.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51233/51233.970.jpg</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51233/51233.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51234/51234.970.jpg</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51234/51234.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51235/51235.970.jpg</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51235/51235.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51236/51236.970.jpg</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/21/12137/images/51236/51236.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="W2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="X2" t="n">
         <v>8990</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="Y2" t="n">
+        <v>8990</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/82/82.150.png
 Заводские данные
@@ -732,7 +920,7 @@
 Цвет:белый/черный</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Sony/"&gt;&lt;img alt="Sony" src="/wa-data/public/shop/brands/82/82.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -873,26 +1061,26 @@
 </t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -907,67 +1095,112 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Игровая приставка Sony PlayStation 5 с дисководом White (Белый)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>14011</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65500/65500.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65500/65500.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65501/65501.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65501/65501.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65502/65502.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65502/65502.970.png'}]</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65500/65500.970.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65500/65500.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65501/65501.970.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65501/65501.55x0.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65502/65502.970.png</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/95/36/13695/images/65502/65502.55x0.png</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="X3" t="n">
         <v>49990</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="Y3" t="n">
+        <v>56990</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/82/82.150.png
 Основные характеристики
@@ -1001,7 +1234,7 @@
 Особенности: возможность установки дополнительного SSD тип M.2 PCIe 4.0</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Sony/"&gt;&lt;img alt="Sony" src="/wa-data/public/shop/brands/82/82.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -1086,26 +1319,26 @@
 </t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1120,63 +1353,84 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>ТВ-адаптер Xiaomi Mi TV Stick 4K HDR Black (Черный) Global version</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>9536</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5390</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5390</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>TV-Приставка Mi TV Stick выполнена в компактном форм-факторе, благодаря чему она может с легкостью поместиться даже в кармане брюк.</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>ТВ-приставки</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Xiaomi</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5390</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TV-Приставка Mi TV Stick выполнена в компактном форм-факторе, благодаря чему она может с легкостью поместиться даже в кармане брюк.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ТВ-приставки</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2 года</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1 год</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Xiaomi</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 Новая эра умного TV Благодаря системе Android TV, Xiaomi TV Stick 4K предлагает вам новые мультимедийные возможности в любое время и в любом месте. Это компактное и портативное устройство сделает ваш досуг с телевизором более интеллектуальным. Android TV Xiaomi TV Stick 4K оснащен ОС Android TV, обеспечивающей простой, но захватывающий опыт. Откройте для себя более 400 000 фильмов и шоу из ваших любимых приложений. Получите более 7 000 приложений из Google Play. Воспроизведение музыки и игр, трансляция с любого устройства и многое другое. Непревзойденные впечатления от просмотра Изображение сверхвысокого разрешения 4K в сочетании с технологией Dolby Vision выводит качество видео на новый уровень. Примите участие в ярком и захватывающем визуальном опыте. Объемный звук Независимо от того, любите ли вы музыку, игры, фильмы или телесериалы, добавление технологии Dolby Atmos и DTS HD в Xiaomi TV Stick 4K обеспечивает еще большее богатство и реалистичность звука, чем когда-либо прежде.
@@ -1209,7 +1463,7 @@
 Вес: 0.085 кг</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -1258,26 +1512,26 @@
 </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1292,67 +1546,128 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ТВ-приставка Apple TV 4K 128Gb 2022 Black (Черный) MN893</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>14083</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66302/66302.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66302/66302.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66301/66301.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66301/66301.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66300/66300.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66300/66300.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66299/66299.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66299/66299.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66298/66298.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66298/66298.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66302/66302.970.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66302/66302.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66301/66301.970.jpg</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66301/66301.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66300/66300.970.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66300/66300.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66299/66299.970.jpg</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66299/66299.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66298/66298.970.jpg</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/67/37/13767/images/66298/66298.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="X5" t="n">
         <v>18990</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="Y5" t="n">
+        <v>18990</v>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Apple TV 4K 3-го поколения объединяет лучшие возможности телевидения с вашими любимыми устройствами и сервисами Apple. Благодаря формату 4K Dolby Vision, HDR10+ и Dolby Atmos он обеспечивает поистине кинематографические впечатления на экране. Вы можете наслаждаться контентом из Apple TV+, Apple Music, Apple Arcade, Apple Fitness+ и Photos, а также Prime Video, Netflix, и Disney+, а также прямые трансляции от Hulu, YouTube TV и Sling TV. Входящий в комплект пульт Siri Remote 3-го поколения с портом USB-C позволяет легко управлять Apple TV 4K с помощью сенсорной панели или просто голосом. Apple TV 4K также работает как центр умного дома, позволяя подключать все ваши любимые аксессуары для...</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/1/1.150.png
 Характеристики
@@ -1388,7 +1703,7 @@
 Дополнительная информация: поддержка Dolby Vision</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Apple/"&gt;&lt;img alt="Apple" src="/wa-data/public/shop/brands/1/1.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -1442,26 +1757,26 @@
 </t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1476,63 +1791,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ТВ-приставка Apple TV 4K 64Gb 2021 Black (Черный) MXH02</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>13457</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60000/60000.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60000/60000.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60001/60001.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60001/60001.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60002/60002.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60002/60002.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60003/60003.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60003/60003.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60004/60004.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60004/60004.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60005/60005.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60005/60005.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60000/60000.970.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60000/60000.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60001/60001.970.jpg</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60001/60001.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60002/60002.970.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60002/60002.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60003/60003.970.jpg</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60003/60003.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60004/60004.970.jpg</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60004/60004.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60005/60005.970.jpg</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/41/31/13141/images/60005/60005.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="X6" t="n">
         <v>24890</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="Y6" t="n">
+        <v>24890</v>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Apple TV 4K с Dolby Vision объединяет лучший телевизионный контент с гигантским потенциалом устройств и сервисов Apple. Картинка и звук как в реальной жизни. Если ваша звуковая система поддерживает стандарт Dolby Atmos, Apple TV 4K превратит ваш дом в настоящий кинотеатр и вы сможете полностью погрузиться в объёмный звук. Apple TV 4K воспроизводит видео с частотой кадров, которая в два раза превышает требования стандарта HDR, поэтому цвета выглядят ещё реалистичнее, а изображение - чётче. Автоматическая калибровка изображения с помощью iPhone. Просто один раз направьте iPhone на экран телевизора, а потом устройтесь поудобнее и смотрите фильмы и сериалы в новом восхитительном качестве.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/1/1.150.png
 ТВ-приставка Apple TV 4K
@@ -1579,7 +1963,7 @@
 Дополнительная информация: поддержка Dolby Vision</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Apple/"&gt;&lt;img alt="Apple" src="/wa-data/public/shop/brands/1/1.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -1630,26 +2014,26 @@
 </t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1664,67 +2048,136 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ТВ-приставка Apple TV 4K 64Gb 2022 Black (Черный) MN873</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>13991</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65373/65373.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65373/65373.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65374/65374.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65374/65374.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65375/65375.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65375/65375.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65376/65376.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65376/65376.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65377/65377.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65377/65377.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65378/65378.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65378/65378.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E7" t="b">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65373/65373.970.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65373/65373.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65374/65374.970.jpg</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65374/65374.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65375/65375.970.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65375/65375.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65376/65376.970.jpg</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65376/65376.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65377/65377.970.jpg</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65377/65377.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65378/65378.970.jpg</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/75/36/13675/images/65378/65378.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="X7" t="n">
         <v>16590</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="Y7" t="n">
+        <v>16590</v>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Apple TV 4K 3-го поколения объединяет лучшие возможности телевидения с вашими любимыми устройствами и сервисами Apple. Благодаря формату 4K Dolby Vision, HDR10+ и Dolby Atmos он обеспечивает поистине кинематографические впечатления на экране. Вы можете наслаждаться контентом из Apple TV+, Apple Music, Apple Arcade, Apple Fitness+ и Photos, а также Prime Video, Netflix, и Disney+, а также прямые трансляции от Hulu, YouTube TV и Sling TV. Входящий в комплект пульт Siri Remote 3-го поколения с портом USB-C позволяет легко управлять Apple TV 4K с помощью сенсорной панели или просто голосом. Apple TV 4K также работает как центр умного дома, позволяя подключать все ваши любимые аксессуары для...</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/1/1.150.png
 ТВ-приставка Apple TV 4K
@@ -1757,7 +2210,7 @@
 Дополнительная информация поддержка Dolby Vision</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Apple/"&gt;&lt;img alt="Apple" src="/wa-data/public/shop/brands/1/1.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -1804,26 +2257,26 @@
 </t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1838,67 +2291,128 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ТВ-приставка Realme TV Stick 4K Black (Черный) Global Version</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>13999</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65383/65383.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65383/65383.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65379/65379.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65379/65379.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65380/65380.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65380/65380.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65381/65381.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65381/65381.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65382/65382.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65382/65382.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65383/65383.970.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65383/65383.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65379/65379.970.jpg</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65379/65379.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65380/65380.970.jpg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65380/65380.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65381/65381.970.jpg</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65381/65381.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65382/65382.970.jpg</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/36/13683/images/65382/65382.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="X8" t="n">
         <v>4190</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="Y8" t="n">
+        <v>4990</v>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Realme TV Stick 4K​ - это съемный компактный медиаплеер для телевизора. Устройство поддерживает прием Wi-Fi сигнала, передачу данных через Bluetooth, HDMI и добавляет обычному телевизору функции Smart TV, позволяя просматривать любимые шоу со стриминговых сервисов. Изображение высокого качества, благодаря поддержке 4K и HDR10+. Высокая производительность на основе 4-ядерного процессора и 2-ядерного графического процессора.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Realme</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/1400/1400.150.png
 ТВ-приставка Realme TV Stick 4K
@@ -1938,7 +2452,7 @@
 Страна производитель Китай</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Realme/"&gt;&lt;img alt="Realme" src="/wa-data/public/shop/brands/1400/1400.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -2001,26 +2515,26 @@
 </t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2035,63 +2549,108 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>ТВ-приставка Xiaomi Mi Box S (2nd Gen) Global Version (MDZ-28-AA)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>14337</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68707/68707.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68707/68707.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68708/68708.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68708/68708.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68709/68709.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68709/68709.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E9" t="b">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68707/68707.970.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68707/68707.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68708/68708.970.jpg</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68708/68708.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68709/68709.970.jpg</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/21/40/14021/images/68709/68709.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
+      <c r="X9" t="n">
         <v>5590</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="Y9" t="n">
+        <v>7990</v>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Быстрый и высокопроизводительный медиаплеер Xiaomi Mi Box S 2nd Gen MDZ-28-AA станет центром развлечений в вашем доме. Модель в ультракомпактном корпусе (его габариты составляют 95 x 95 мм, а вес 147 г), предоставляет максимум возможностей платформы Google TV. Медиаплеер поддерживает форматы 2160p 4K UHD и HDR, Dolby Vision. Высокая скорость работы, благодаря процессору ARM Cortex-A55 и 2 Гб оперативной памяти. Объем внутренней памяти равен 8 Гб. Встроенный модуль Wi-Fi, Google Ассистент, Chromecast и премиальный звук Dolby Audio и DTS-HD. В комплекте адаптер питания, пульт ДУ и кабель HDMI.</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 ТВ-приставка Xiaomi Mi Box S (2nd Gen) Global Version (MDZ-28-AA)
@@ -2144,7 +2703,7 @@
 Вес 0.147 кг</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -2227,26 +2786,26 @@
 </t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2261,67 +2820,136 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Геймпад Razer Wolverine V2 Black (Черный) RZ06-03560100-R3M1 EAC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>12418</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50741/50741.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50741/50741.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50742/50742.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50742/50742.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50743/50743.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50743/50743.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50744/50744.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50744/50744.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50745/50745.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50745/50745.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50746/50746.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50746/50746.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50741/50741.970.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50741/50741.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50742/50742.970.jpg</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50742/50742.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50743/50743.970.jpg</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50743/50743.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50744/50744.970.jpg</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50744/50744.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50745/50745.970.jpg</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50745/50745.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50746/50746.970.jpg</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/04/21/12104/images/50746/50746.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="X10" t="n">
         <v>7980</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="Y10" t="n">
+        <v>7980</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Razer</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="AI10" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t xml:space="preserve">https://unotechno.ru/wa-data/public/shop/brands/3436/3436.150.png
 ПодключениеПлатформыWi-FiКоличество кнопокJack 3.5 ммИсточник питанияЦветИгровойXbox One:ПроводноеPC / Xbox One / Xbox Series X / Xbox Series SНет202от USB портаЧерныйДаДа::::::::::::::::
@@ -2337,7 +2965,7 @@
 </t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Razer/"&gt;&lt;img alt="Razer" src="/wa-data/public/shop/brands/3436/3436.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -2564,26 +3192,26 @@
 </t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2598,67 +3226,112 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Геймпад Sony DualSense Black (Черная полночь) EAC</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>11804</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44625/44625.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44625/44625.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44626/44626.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44626/44626.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44627/44627.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44627/44627.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44625/44625.970.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44625/44625.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44626/44626.970.jpg</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44626/44626.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44627/44627.970.jpg</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/90/14/11490/images/44627/44627.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="X11" t="n">
         <v>4800</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="Y11" t="n">
+        <v>5990</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/82/82.150.png
 Заводские данные
@@ -2692,7 +3365,7 @@
 Цвет:черный</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Sony/"&gt;&lt;img alt="Sony" src="/wa-data/public/shop/brands/82/82.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -2833,26 +3506,26 @@
 </t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2867,63 +3540,116 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Игровая приставка Microsoft Xbox Series S 512Gb SSD White/Black (Белый/Черный)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>13945</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64833/64833.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64833/64833.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64834/64834.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64834/64834.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64835/64835.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64835/64835.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64836/64836.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64836/64836.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E12" t="b">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64833/64833.970.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64833/64833.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64834/64834.970.jpg</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64834/64834.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64835/64835.970.jpg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64835/64835.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64836/64836.970.jpg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/29/36/13629/images/64836/64836.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="X12" t="n">
         <v>24990</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="Y12" t="n">
+        <v>28990</v>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Высочайшая производительность в самой маленькой консоли Xbox. Следующее поколение игр несет с собой самую большую цифровую библиотеку для нашей самой маленькой Xbox. Благодаря более динамичным игровым мирам, ускоренной загрузке и добавлению Xbox Game Pass (продается отдельно) полностью цифровая консоль Xbox Series S является невероятно привлекательным предложением в мире игр.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>Microsoft</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="AI12" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/3429/3429.150.png
 Игровая приставка Microsoft Xbox Series S
@@ -2962,7 +3688,7 @@
 Вес 2 кг</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Microsoft/"&gt;&lt;img alt="Microsoft" src="/wa-data/public/shop/brands/3429/3429.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -3021,26 +3747,26 @@
 </t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3055,67 +3781,152 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch Lite Coral (Коралловый) EAC</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>12316</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49629/49629.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49629/49629.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49630/49630.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49630/49630.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49631/49631.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49631/49631.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49632/49632.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49632/49632.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49633/49633.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49633/49633.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49634/49634.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49634/49634.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49635/49635.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49635/49635.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49636/49636.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49636/49636.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E13" t="b">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49629/49629.970.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49629/49629.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49630/49630.970.jpg</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49630/49630.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49631/49631.970.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49631/49631.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49632/49632.970.jpg</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49632/49632.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49633/49633.970.jpg</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49633/49633.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49634/49634.970.jpg</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49634/49634.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49635/49635.970.jpg</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49635/49635.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49636/49636.970.jpg</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/02/20/12002/images/49636/49636.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
+      <c r="X13" t="n">
         <v>14990</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="Y13" t="n">
+        <v>16490</v>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Для ценителей портативного режима, оставивших в стороне док-станцию, компания подготовила новую версию девайса – Nintendo Switch Lite. Обновлённая консоль представлена в монолитном корпусе без отстёгивающихся JoyCon-контроллеров. Она по-прежнему напоминает старшую сестру, но больше не позволяет запускать игры на телевизоре, концентрируясь на развлечениях в дорожном формате. При этом Lite-версия не уступает оригиналу в плане производительности, позволяя запросто запускать все хиты или инди-жемчужины, которые поддерживают автономный режим.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>Nintendo</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="AI13" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t xml:space="preserve">https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 АБСОЛЮТНАЯ СВОБОДА
@@ -3147,7 +3958,7 @@
 </t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -3248,26 +4059,26 @@
 </t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3282,69 +4093,130 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch OLED 64Gb Neon Blue/Neon Red</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>14449</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69772/69772.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69772/69772.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69773/69773.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69773/69773.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69774/69774.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69774/69774.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69775/69775.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69775/69775.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69776/69776.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69776/69776.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E14" t="b">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69772/69772.970.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69772/69772.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69773/69773.970.jpg</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69773/69773.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69774/69774.970.jpg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69774/69774.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69775/69775.970.jpg</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69775/69775.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69776/69776.970.jpg</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/33/41/14133/images/69776/69776.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="X14" t="n">
         <v>26590</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="Y14" t="n">
+        <v>27990</v>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Захватывающие развлечения и незабываемые эмоции от игры с Nintendo Switch OLED, мобильной игровой консолью, объединившей в себе элементы портативной и стационарной моделей игровых приставок. Качественная графика с новым 7" сенсорным OLED-дисплеем, яркой и контрастной картинкой. Встроенная память 64 Гб - максимальное пространство для хранения игр и приложений. Многофункциональные контроллеры Joy-Con. Поддержка мультиплеера и подключения к телевизору. Слот для карты памяти, а также набор беспроводных и проводных интерфейсов, стереодинамики. Аккумулятор 4310 мА/ч. Стильный и эргономичный дизайн - долгие игровые сессии станут максимально комфортными.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>Nintendo</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr">
         <is>
           <t>[{'name': 'Цвет', 'values': [{'name': 'Белый', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-white/'}, {'name': 'Splatoon 3 Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-splatoon-3-edition/'}, {'name': 'Neon Blue/Neon Red', 'rel_url': ''}, {'name': 'Pokemon Scarlet &amp; Violet Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-pokemon-scarlet-violet-edition/'}, {'name': 'The Legend of Zelda', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-the-legend-of-zelda-tears-of-the-kingdom/'}]}]</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="AI14" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 Игровая приставка Nintendo Switch OLED</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;&lt;h2&gt;Игровая приставка Nintendo Switch OLED&lt;/h2&gt;&lt;/div&gt;
@@ -3352,78 +4224,78 @@
 </t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>7 дюйм</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>ARM</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>1020 МГц</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>Maxwell GPU</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>4096 МБ</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>64 ГБ</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>Bluetooth, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц, NFC</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>RJ-45 Ethernet, HDMI, USB x 2, аудиоразъем</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>4310 мА/ч</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>242 × 102 × 14 мм</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AW14" t="inlineStr">
         <is>
           <t>320 г</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>игровая приставка, док-станция (с портом LAN), контроллеры Joy-Con, ремешки Joy-Con, держатель Joy-Con, кабель HDMI, блок питания</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3438,69 +4310,146 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch OLED 64Gb Pokemon Scarlet &amp; Violet Edition</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>14450</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69787/69787.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69787/69787.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69788/69788.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69788/69788.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69789/69789.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69789/69789.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69790/69790.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69790/69790.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69791/69791.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69791/69791.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69792/69792.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69792/69792.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69793/69793.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69793/69793.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69787/69787.970.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69787/69787.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69788/69788.970.jpg</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69788/69788.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69789/69789.970.jpg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69789/69789.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69790/69790.970.jpg</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69790/69790.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69791/69791.970.jpg</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69791/69791.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69792/69792.970.jpg</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69792/69792.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69793/69793.970.jpg</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/34/41/14134/images/69793/69793.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="n">
+      <c r="X15" t="n">
         <v>29990</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="Y15" t="n">
+        <v>33790</v>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Захватывающие развлечения и незабываемые эмоции от игры с Nintendo Switch OLED, мобильной игровой консолью, объединившей в себе элементы портативной и стационарной моделей игровых приставок. Качественная графика с новым 7" сенсорным OLED-дисплеем, яркой и контрастной картинкой. Встроенная память 64 Гб - максимальное пространство для хранения игр и приложений. Многофункциональные контроллеры Joy-Con. Поддержка мультиплеера и подключения к телевизору. Слот для карты памяти, а также набор беспроводных и проводных интерфейсов, стереодинамики. Аккумулятор 4310 мА/ч. Стильный и эргономичный дизайн - долгие игровые сессии станут максимально комфортными.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>Nintendo</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr">
         <is>
           <t>[{'name': 'Цвет', 'values': [{'name': 'Белый', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-white/'}, {'name': 'Splatoon 3 Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-splatoon-3-edition/'}, {'name': 'Neon Blue/Neon Red', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-neon-blue-neon-red/'}, {'name': 'Pokemon Scarlet &amp; Violet Edition', 'rel_url': ''}, {'name': 'The Legend of Zelda', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-the-legend-of-zelda-tears-of-the-kingdom/'}]}]</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="AI15" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 Игровая приставка Nintendo Switch OLED</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;&lt;h2&gt;Игровая приставка Nintendo Switch OLED&lt;/h2&gt;&lt;/div&gt;
@@ -3508,78 +4457,78 @@
 </t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>7 дюйм</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>ARM</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>1020 ГГц</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>Maxwell GPU</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>4096 МБ</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>64 ГБ</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>Bluetooth, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц, NFC</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>RJ-45 Ethernet, HDMI, USB x 2, аудиоразъем</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>4310 мА/ч</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AV15" t="inlineStr">
         <is>
           <t>242 × 102 × 14 мм</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AW15" t="inlineStr">
         <is>
           <t>320 г</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
         <is>
           <t>игровая приставка, док-станция (с портом LAN), контроллеры Joy-Con, ремешки Joy-Con, держатель Joy-Con, кабель HDMI, блок питания</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3594,69 +4543,146 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch OLED 64Gb Splatoon 3 Edition</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>14452</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69765/69765.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69765/69765.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69766/69766.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69766/69766.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69767/69767.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69767/69767.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69768/69768.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69768/69768.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69769/69769.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69769/69769.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69770/69770.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69770/69770.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69771/69771.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69771/69771.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69765/69765.970.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69765/69765.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69766/69766.970.jpg</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69766/69766.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69767/69767.970.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69767/69767.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69768/69768.970.jpg</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69768/69768.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69769/69769.970.jpg</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69769/69769.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69770/69770.970.jpg</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69770/69770.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69771/69771.970.jpg</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/36/41/14136/images/69771/69771.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
+      <c r="X16" t="n">
         <v>28990</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="Y16" t="n">
+        <v>31390</v>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>Захватывающие развлечения и незабываемые эмоции от игры с Nintendo Switch OLED, мобильной игровой консолью, объединившей в себе элементы портативной и стационарной моделей игровых приставок. Качественная графика с новым 7" сенсорным OLED-дисплеем, яркой и контрастной картинкой. Встроенная память 64 Гб - максимальное пространство для хранения игр и приложений. Многофункциональные контроллеры Joy-Con. Поддержка мультиплеера и подключения к телевизору. Слот для карты памяти, а также набор беспроводных и проводных интерфейсов, стереодинамики. Аккумулятор 4310 мА/ч. Стильный и эргономичный дизайн - долгие игровые сессии станут максимально комфортными.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>Nintendo</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr">
         <is>
           <t>[{'name': 'Цвет', 'values': [{'name': 'Белый', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-white/'}, {'name': 'Splatoon 3 Edition', 'rel_url': ''}, {'name': 'Neon Blue/Neon Red', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-neon-blue-neon-red/'}, {'name': 'Pokemon Scarlet &amp; Violet Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-pokemon-scarlet-violet-edition/'}, {'name': 'The Legend of Zelda', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-the-legend-of-zelda-tears-of-the-kingdom/'}]}]</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="AI16" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 Игровая приставка Nintendo Switch OLED</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;&lt;h2&gt;Игровая приставка Nintendo Switch OLED&lt;/h2&gt;&lt;/div&gt;
@@ -3664,78 +4690,78 @@
 </t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>7 дюйм</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>ARM</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>1020 МГц</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>Maxwell GPU</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>4096 МБ</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>64 ГБ</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>Bluetooth, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц, NFC</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>RJ-45 Ethernet, HDMI, USB x 2, аудиоразъем</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>4310 мА/ч</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AV16" t="inlineStr">
         <is>
           <t>242 × 102 × 14 мм</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AW16" t="inlineStr">
         <is>
           <t>320 г</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
         <is>
           <t>игровая приставка, док-станция (с портом LAN), контроллеры Joy-Con, ремешки Joy-Con, держатель Joy-Con, кабель HDMI, блок питания</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3750,69 +4776,122 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch OLED 64Gb The Legend of Zelda: Tears of the Kingdom</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>14451</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69783/69783.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69783/69783.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69784/69784.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69784/69784.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69785/69785.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69785/69785.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69786/69786.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69786/69786.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E17" t="b">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69783/69783.970.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69783/69783.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69784/69784.970.jpg</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69784/69784.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69785/69785.970.jpg</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69785/69785.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69786/69786.970.jpg</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/35/41/14135/images/69786/69786.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
+      <c r="X17" t="n">
         <v>31990</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="Y17" t="n">
+        <v>38990</v>
+      </c>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Захватывающие развлечения и незабываемые эмоции от игры с Nintendo Switch OLED, мобильной игровой консолью, объединившей в себе элементы портативной и стационарной моделей игровых приставок. Качественная графика с новым 7" сенсорным OLED-дисплеем, яркой и контрастной картинкой. Встроенная память 64 Гб - максимальное пространство для хранения игр и приложений. Многофункциональные контроллеры Joy-Con. Поддержка мультиплеера и подключения к телевизору. Слот для карты памяти, а также набор беспроводных и проводных интерфейсов, стереодинамики. Аккумулятор 4310 мА/ч. Стильный и эргономичный дизайн - долгие игровые сессии станут максимально комфортными.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>Nintendo</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr">
         <is>
           <t>[{'name': 'Цвет', 'values': [{'name': 'Белый', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-white/'}, {'name': 'Splatoon 3 Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-splatoon-3-edition/'}, {'name': 'Neon Blue/Neon Red', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-neon-blue-neon-red/'}, {'name': 'Pokemon Scarlet &amp; Violet Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-pokemon-scarlet-violet-edition/'}, {'name': 'The Legend of Zelda', 'rel_url': ''}]}]</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="AI17" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 Игровая приставка Nintendo Switch OLED</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;&lt;h2&gt;Игровая приставка Nintendo Switch OLED&lt;/h2&gt;&lt;/div&gt;
@@ -3820,78 +4899,78 @@
 </t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>7 дюйм</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="AM17" t="inlineStr">
         <is>
           <t>ARM</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>1020 ГГц</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>Maxwell GPU</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>4096 МБ</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>64 ГБ</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>Bluetooth, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц, NFC</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>RJ-45 Ethernet, HDMI, USB x 2, аудиоразъем</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>4310 мА/ч</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AV17" t="inlineStr">
         <is>
           <t>242 × 102 × 14 мм</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AW17" t="inlineStr">
         <is>
           <t>320 г</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AX17" t="inlineStr">
         <is>
           <t>игровая приставка, док-станция (с портом LAN), контроллеры Joy-Con, ремешки Joy-Con, держатель Joy-Con, кабель HDMI, блок питания</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3906,73 +4985,142 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch OLED 64Gb White</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>14453</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69777/69777.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69777/69777.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69778/69778.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69778/69778.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69779/69779.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69779/69779.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69780/69780.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69780/69780.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69781/69781.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69781/69781.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69782/69782.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69782/69782.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E18" t="b">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69777/69777.970.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69777/69777.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69778/69778.970.jpg</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69778/69778.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69779/69779.970.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69779/69779.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69780/69780.970.jpg</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69780/69780.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69781/69781.970.jpg</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69781/69781.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69782/69782.970.jpg</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/37/41/14137/images/69782/69782.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="X18" t="n">
         <v>28000</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="Y18" t="n">
+        <v>28000</v>
+      </c>
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Захватывающие развлечения и незабываемые эмоции от игры с Nintendo Switch OLED, мобильной игровой консолью, объединившей в себе элементы портативной и стационарной моделей игровых приставок. Качественная графика с новым 7" сенсорным OLED-дисплеем, яркой и контрастной картинкой. Встроенная память 64 Гб - максимальное пространство для хранения игр и приложений. Многофункциональные контроллеры Joy-Con. Поддержка мультиплеера и подключения к телевизору. Слот для карты памяти, а также набор беспроводных и проводных интерфейсов, стереодинамики. Аккумулятор 4310 мА/ч. Стильный и эргономичный дизайн - долгие игровые сессии станут максимально комфортными.</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="AD18" t="inlineStr">
         <is>
           <t>Nintendo</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr">
         <is>
           <t>[{'name': 'Цвет', 'values': [{'name': 'Белый', 'rel_url': ''}, {'name': 'Splatoon 3 Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-splatoon-3-edition/'}, {'name': 'Neon Blue/Neon Red', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-neon-blue-neon-red/'}, {'name': 'Pokemon Scarlet &amp; Violet Edition', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-pokemon-scarlet-violet-edition/'}, {'name': 'The Legend of Zelda', 'rel_url': '/igrovaya-pristavka-nintendo-switch-oled-64gb-the-legend-of-zelda-tears-of-the-kingdom/'}]}]</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="AI18" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="AJ18" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 Игровая приставка Nintendo Switch OLED</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;&lt;h2&gt;Игровая приставка Nintendo Switch OLED&lt;/h2&gt;&lt;/div&gt;
@@ -3980,78 +5128,78 @@
 </t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>7 дюйм</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="AM18" t="inlineStr">
         <is>
           <t>ARM</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>1020 ГГц</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>Maxwell GPU</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>4096 МБ</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>64 ГБ</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>Bluetooth, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц, NFC</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>RJ-45 Ethernet, HDMI, USB x 2, аудиоразъем</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>4310 мА/ч</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AV18" t="inlineStr">
         <is>
           <t>242 × 102 × 14 мм</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AW18" t="inlineStr">
         <is>
           <t>320 г</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AX18" t="inlineStr">
         <is>
           <t>игровая приставка, док-станция (с портом LAN), контроллеры Joy-Con, ремешки Joy-Con, держатель Joy-Con, кабель HDMI, блок питания</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4066,21 +5214,98 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch rev.2 32GB Grey (Серый) EAC</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>14129</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66696/66696.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66696/66696.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66699/66699.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66699/66699.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66700/66700.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66700/66700.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66697/66697.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66697/66697.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66698/66698.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66698/66698.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66695/66695.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66695/66695.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66701/66701.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66701/66701.970.png'}]</t>
-        </is>
-      </c>
-      <c r="E19" t="b">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66696/66696.970.png</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66696/66696.55x0.png</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66699/66699.970.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66699/66699.55x0.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66700/66700.970.png</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66700/66700.55x0.png</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66697/66697.970.png</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66697/66697.55x0.png</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66698/66698.970.png</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66698/66698.55x0.png</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66695/66695.970.png</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66695/66695.55x0.png</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66701/66701.970.png</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/13/38/13813/images/66701/66701.55x0.png</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
+      <c r="X19" t="n">
         <v>24990</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="Y19" t="n">
+        <v>27990</v>
+      </c>
+      <c r="Z19" t="inlineStr">
         <is>
           <t>ДИСПЛЕЙ
 Тип дисплеяLCD
@@ -4096,44 +5321,44 @@
 Nintendo Switch — мобильная игровая консоль, объединившая в себе элементы портативной и стационарной моделей игровых приставок. Разнорежимные контроллеры Joy-Con любопытная находка производителей, которая порадует любителей поиграть.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="AD19" t="inlineStr">
         <is>
           <t>Nintendo</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="AI19" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 Основные характеристики игровой приставки Nintendo Switch
@@ -4177,7 +5402,7 @@
 Дополнительная информация:Сенсоры: акселерометр, гироскоп, сенсор яркости. Комплектация: консоль, правый и левый контроллеры Joy-Con, держатель Joy-Con, набор ремешков Joy-Con, док-станция Nintendo Switch, кабель HDMI</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -4336,26 +5561,26 @@
 </t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4370,67 +5595,88 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Игровая приставка Nintendo Switch Rev.2 32Gb Neon Blue/Neon Red (Неоновый синий/Неоновый красный)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>14448</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>27990</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Скрасьте домашний досуг и получите незабываемые эмоции от игры с мобильной игровой консолью Nintendo Switch Switch Rev.2 с улучшенным временем автономной работы. 6,2" сенсорный LCD дисплей. Встроенная память 32 Гб для хранения игр и приложений. Многофункциональные контроллеры Joy-Con. Поддержка мультиплеера и подключения к телевизору. Слот для карты памяти, а также набор беспроводных и проводных интерфейсов, стереодинамики. Аккумулятор 4310 мА/ч. Стильный и эргономичный дизайн - долгие игровые сессии станут максимально комфортными.</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Игровые приставки</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Nintendo</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>23000</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Скрасьте домашний досуг и получите незабываемые эмоции от игры с мобильной игровой консолью Nintendo Switch Switch Rev.2 с улучшенным временем автономной работы. 6,2" сенсорный LCD дисплей. Встроенная память 32 Гб для хранения игр и приложений. Многофункциональные контроллеры Joy-Con. Поддержка мультиплеера и подключения к телевизору. Слот для карты памяти, а также набор беспроводных и проводных интерфейсов, стереодинамики. Аккумулятор 4310 мА/ч. Стильный и эргономичный дизайн - долгие игровые сессии станут максимально комфортными.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Игровые приставки</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2 года</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1 год</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Nintendo</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
+      <c r="AI20" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="AJ20" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/6048/6048.150.png
 Игровая приставка Nintendo Switch Rev.2
@@ -4475,7 +5721,7 @@
 Дополнительная информация:Сенсоры: акселерометр, гироскоп, сенсор яркости. Комплектация: консоль, правый и левый контроллеры Joy-Con, держатель Joy-Con, набор ремешков Joy-Con, док-станция Nintendo Switch, кабель HDMI</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Nintendo/"&gt;&lt;img alt="Nintendo" src="/wa-data/public/shop/brands/6048/6048.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -4635,26 +5881,26 @@
 </t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4669,71 +5915,108 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Игровая приставка Sony PlayStation 5 Digital Edition White (Белый) EAC</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>12468</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51302/51302.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51302/51302.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51300/51300.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51300/51300.970.png'}]</t>
-        </is>
-      </c>
-      <c r="E21" t="b">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51302/51302.970.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51302/51302.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51300/51300.970.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/54/21/12154/images/51300/51300.55x0.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
+      <c r="X21" t="n">
         <v>67990</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="Y21" t="n">
+        <v>67990</v>
+      </c>
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Официальная гарантия + Подписка Sony PlayStation Plus на 12 месяцев</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="AD21" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="AI21" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="AJ21" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/82/82.150.png
 Что в коробке
@@ -4758,7 +6041,7 @@
 Вес: 3.9 кг</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Sony/"&gt;&lt;img alt="Sony" src="/wa-data/public/shop/brands/82/82.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -4791,26 +6074,26 @@
 </t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4825,67 +6108,112 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Игровая приставка Sony PlayStation 5 с дисководом White (Белый) EAC</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>11622</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42766/42766.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42766/42766.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42767/42767.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42767/42767.970.png'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42768/42768.55x0.png', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42768/42768.970.png'}]</t>
-        </is>
-      </c>
-      <c r="E22" t="b">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42766/42766.970.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42766/42766.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42767/42767.970.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42767/42767.55x0.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42768/42768.970.png</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/08/13/11308/images/42768/42768.55x0.png</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="X22" t="n">
         <v>74990</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="Y22" t="n">
+        <v>74990</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="AB22" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="AD22" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="AI22" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="AJ22" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/82/82.150.png
 Основные характеристики
@@ -4919,7 +6247,7 @@
 Особенности: возможность установки дополнительного SSD тип M.2 PCIe 4.0</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Sony/"&gt;&lt;img alt="Sony" src="/wa-data/public/shop/brands/82/82.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -5004,26 +6332,26 @@
 </t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5038,67 +6366,120 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Камера Sony для PlayStation 5 HD (CFI-ZEY1) EAC</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>12411</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50608/50608.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50608/50608.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50609/50609.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50609/50609.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50610/50610.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50610/50610.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50611/50611.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50611/50611.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E23" t="b">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50608/50608.970.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50608/50608.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50609/50609.970.jpg</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50609/50609.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50610/50610.970.jpg</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50610/50610.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50611/50611.970.jpg</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/97/20/12097/images/50611/50611.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="X23" t="n">
         <v>1490</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="Y23" t="n">
+        <v>1490</v>
+      </c>
+      <c r="Z23" t="inlineStr">
         <is>
           <t>Благодаря камере HD для Sony PlayStation 5 ты окажешься в самом центре игрового процесса.</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="AD23" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="AI23" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="AJ23" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/82/82.150.png
 ЗАПИСЫВАЙ ЛУЧШИЕ МОМЕНТЫ
@@ -5120,7 +6501,7 @@
 Инструкция да</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Sony/"&gt;&lt;img alt="Sony" src="/wa-data/public/shop/brands/82/82.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -5146,26 +6527,26 @@
 </t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5180,63 +6561,116 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Медиаплеер Xiaomi Mi Box 4C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>8634</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40509/40509.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40509/40509.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40510/40510.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40510/40510.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40511/40511.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40511/40511.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40512/40512.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40512/40512.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E24" t="b">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40509/40509.970.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40509/40509.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40510/40510.970.jpg</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40510/40510.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40511/40511.970.jpg</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40511/40511.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40512/40512.970.jpg</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/83/83/8383/images/40512/40512.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="X24" t="n">
         <v>3590</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="Y24" t="n">
+        <v>3590</v>
+      </c>
+      <c r="Z24" t="inlineStr">
         <is>
           <t>Двойная модернизация систем хранения и эксплуатации. По сравнению с Mi Box 3c новое поколение приставок получило удвоенный объем памяти, а также технологию HDR. Вы получите небывалое удовольствие от качественной графики.</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr">
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="AI24" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="AJ24" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 Xiaomi Mi Box 4C
@@ -5272,7 +6706,7 @@
 USB-порт под сетевой кабель или USB-флеш-накопитель для просмотра локальных файлов.</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -5324,26 +6758,26 @@
 </t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5358,55 +6792,108 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Медиаплеер Xiaomi Mi Box International Version</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>6711</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40513/40513.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40513/40513.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40514/40514.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40514/40514.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40515/40515.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40515/40515.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40516/40516.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40516/40516.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E25" t="b">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40513/40513.970.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40513/40513.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40514/40514.970.jpg</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40514/40514.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40515/40515.970.jpg</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40515/40515.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40516/40516.970.jpg</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/69/64/6469/images/40516/40516.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="X25" t="n">
         <v>5489</v>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="Y25" t="n">
+        <v>5489</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr">
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="AI25" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="AJ25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Прошивка на русском и английском языках!
@@ -5467,7 +6954,7 @@
 Вес 0.18 кг</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;&lt;div&gt;
 &lt;p&gt;&lt;strong&gt;Прошивка на русском и английском языках!&lt;/strong&gt;&lt;/p&gt;
@@ -5531,26 +7018,26 @@
 </t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5565,67 +7052,136 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Медиаплеер Яндекс Модуль с Алисой (YNDX-00251) EAC</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>12182</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48680/48680.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48680/48680.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48681/48681.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48681/48681.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48682/48682.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48682/48682.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48683/48683.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48683/48683.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48684/48684.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48684/48684.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48685/48685.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48685/48685.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E26" t="b">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48680/48680.970.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48680/48680.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48681/48681.970.jpg</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48681/48681.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48682/48682.970.jpg</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48682/48682.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48683/48683.970.jpg</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48683/48683.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48684/48684.970.jpg</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48684/48684.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48685/48685.970.jpg</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/68/18/11868/images/48685/48685.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="X26" t="n">
         <v>4490</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="Y26" t="n">
+        <v>4990</v>
+      </c>
+      <c r="Z26" t="inlineStr">
         <is>
           <t>Просто смотрите, что хотите - добавьте Smart TV с Алисой в самый обычный телевизор и управляйте голосом. Подключайте без проблем - достаточно телевизора с HDMI. Отдыхайте всей семьёй - смотрите кино, сериалы, мультики, любимые видеоблоги и смешные ролики из интернета. Поддержка форматов 4K и Dolby Vision. Интеграция с Яндекс.Станцией для голосового управления. Работает на программной платформе "Яндекс ТВ".</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
         <is>
           <t>Яндекс</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr">
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="AI26" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="AJ26" t="inlineStr">
         <is>
           <t xml:space="preserve">https://unotechno.ru/wa-data/public/shop/brands/3409/3409.150.png
 ПРОСТО СМОТРИТЕ, ЧТО ХОТИТЕ
@@ -5640,7 +7196,7 @@
 </t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="AK26" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/%D0%AF%D0%BD%D0%B4%D0%B5%D0%BA%D1%81/"&gt;&lt;img alt="Яндекс" src="/wa-data/public/shop/brands/3409/3409.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -5705,26 +7261,26 @@
 </t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5739,67 +7295,104 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>ПДУ мультимедиа PlayStation 5 (CFI-ZMR1) EAC</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>12410</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50606/50606.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50606/50606.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50607/50607.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50607/50607.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E27" t="b">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50606/50606.970.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50606/50606.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50607/50607.970.jpg</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/96/20/12096/images/50607/50607.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="n">
+      <c r="X27" t="n">
         <v>990</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="Y27" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z27" t="inlineStr">
         <is>
           <t>Пульт ДУ обеспечивает полный контроль над развлечениями, доступными владельцу приставки Sony PlayStation 5, а также над настройками совместимых телевизоров. Благодаря эргономичной форме он отлично лежит в ладони.</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>Игровые приставки</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="AI27" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="AJ27" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/82/82.150.png
 БЫСТРАЯ И УДОБНАЯ НАВИГАЦИЯ
@@ -5816,7 +7409,7 @@
 Страна производитель:Китай</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="AK27" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Sony/"&gt;&lt;img alt="Sony" src="/wa-data/public/shop/brands/82/82.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -5863,26 +7456,26 @@
 </t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5897,67 +7490,136 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>ТВ-адаптер Xiaomi Mi TV Stick 2K HDR Black (Черный) EAC</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>10742</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40523/40523.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40523/40523.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40524/40524.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40524/40524.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40525/40525.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40525/40525.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40526/40526.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40526/40526.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40527/40527.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40527/40527.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40528/40528.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40528/40528.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E28" t="b">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40523/40523.970.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40523/40523.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40524/40524.970.jpg</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40524/40524.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40525/40525.970.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40525/40525.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40526/40526.970.jpg</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40526/40526.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40527/40527.970.jpg</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40527/40527.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40528/40528.970.jpg</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/30/04/10430/images/40528/40528.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="n">
+      <c r="X28" t="n">
         <v>4990</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="Y28" t="n">
+        <v>4990</v>
+      </c>
+      <c r="Z28" t="inlineStr">
         <is>
           <t>ТВ-приставка в компактном форм-факторе, благодаря чему она может с легкостью поместиться даже в кармане брюк. Качественное изображение в разрешении FHD. Работает на Android TV 9.0 1 Гб оперативки + 8 Гб места для хранения. Премиальный звук Dolby и DTS. Встроенный Google Ассистент, Chromecast и двухдиапазонный Wi-Fi. Легкое подключение.</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="AD28" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="AI28" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="AJ28" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 Компактный и портативный
@@ -6005,7 +7667,7 @@
 Размеры: Ширина: 95 мм: Высота: 35 мм: Глубина: 20 мм: Вес: 28.5 г.</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="AK28" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -6059,26 +7721,26 @@
 </t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6093,63 +7755,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>ТВ-адаптер Xiaomi Mi TV Stick 2K HDR Black (Черный) Global version</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>9535</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40517/40517.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40517/40517.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40518/40518.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40518/40518.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40519/40519.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40519/40519.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40520/40520.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40520/40520.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40521/40521.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40521/40521.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40522/40522.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40522/40522.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E29" t="b">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40517/40517.970.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40517/40517.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40518/40518.970.jpg</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40518/40518.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40519/40519.970.jpg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40519/40519.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40520/40520.970.jpg</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40520/40520.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40521/40521.970.jpg</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40521/40521.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40522/40522.970.jpg</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/23/92/9223/images/40522/40522.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="b">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
         <v>3790</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="Y29" t="n">
+        <v>3990</v>
+      </c>
+      <c r="Z29" t="inlineStr">
         <is>
           <t>ТВ-приставка в компактном форм-факторе, благодаря чему она может с легкостью поместиться даже в кармане брюк. Качественное изображение в разрешении FHD. Работает на Android TV 9.0 1 Гб оперативки + 8 Гб места для хранения. Премиальный звук Dolby и DTS. Встроенный Google Ассистент, Chromecast и двухдиапазонный Wi-Fi. Легкое подключение.</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="AI29" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="AJ29" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 Компактный и портативный
@@ -6197,7 +7928,7 @@
 Размеры: Ширина: 95 мм: Высота: 35 мм: Глубина: 20 мм: Вес: 28.5 г.</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="AK29" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -6251,26 +7982,26 @@
 </t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6285,63 +8016,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>ТВ-приставка Apple TV 4K 32Gb 2021 Black (Черный) MXGY2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>12578</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52176/52176.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52176/52176.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52177/52177.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52177/52177.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52178/52178.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52178/52178.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52179/52179.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52179/52179.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52180/52180.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52180/52180.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52181/52181.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52181/52181.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E30" t="b">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52176/52176.970.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52176/52176.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52177/52177.970.jpg</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52177/52177.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52178/52178.970.jpg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52178/52178.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52179/52179.970.jpg</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52179/52179.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52180/52180.970.jpg</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52180/52180.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52181/52181.970.jpg</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/62/22/12262/images/52181/52181.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="b">
         <v>0</v>
       </c>
-      <c r="F30" t="n">
+      <c r="X30" t="n">
         <v>34990</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="Y30" t="n">
+        <v>34990</v>
+      </c>
+      <c r="Z30" t="inlineStr">
         <is>
           <t>Apple TV 4K с Dolby Vision объединяет лучший телевизионный контент с гигантским потенциалом устройств и сервисов Apple. Картинка и звук как в реальной жизни. Если ваша звуковая система поддерживает стандарт Dolby Atmos, Apple TV 4K превратит ваш дом в настоящий кинотеатр и вы сможете полностью погрузиться в объёмный звук. Apple TV 4K воспроизводит видео с частотой кадров, которая в два раза превышает требования стандарта HDR, поэтому цвета выглядят ещё реалистичнее, а изображение - чётче. Автоматическая калибровка изображения с помощью iPhone. Просто один раз направьте iPhone на экран телевизора, а потом устройтесь поудобнее и смотрите фильмы и сериалы в новом восхитительном качестве.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="AB30" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="AD30" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="AI30" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="AJ30" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/1/1.150.png
 ТВ-приставка Apple TV 4K
@@ -6388,7 +8188,7 @@
 Дополнительная информация: поддержка Dolby Vision</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="AK30" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Apple/"&gt;&lt;img alt="Apple" src="/wa-data/public/shop/brands/1/1.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -6439,26 +8239,26 @@
 </t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6473,67 +8273,136 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>ТВ-приставка Xiaomi Mi Box 4K MDZ-22-AG Black (Черный) Global Version</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>14195</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67359/67359.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67359/67359.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67360/67360.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67360/67360.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67361/67361.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67361/67361.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67362/67362.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67362/67362.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67365/67365.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67365/67365.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67366/67366.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67366/67366.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E31" t="b">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67359/67359.970.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67359/67359.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67360/67360.970.jpg</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67360/67360.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67361/67361.970.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67361/67361.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67362/67362.970.jpg</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67362/67362.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67365/67365.970.jpg</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67365/67365.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67366/67366.970.jpg</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/79/38/13879/images/67366/67366.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="b">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="X31" t="n">
         <v>5990</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="Y31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="Z31" t="inlineStr">
         <is>
           <t>Быстрый и высокопроизводительный медиаплеер с поддержкой 4K и HDR. Работает на Android 8.1 2 Гб оперативки + 8 Гб места для хранения. Доступ к огромному количеству контента. Премиальный звук Dolby и DTS. Встроенный Google Ассистент и Chromecast. Легкое подключение, а также двухдиапазонный Wi-Fi.</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="AB31" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="AD31" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="AI31" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="AJ31" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 ТВ-приставка Xiaomi Mi Box 4K (MDZ-22-AG) Global Version
@@ -6570,7 +8439,7 @@
 https://unotechno.ru/wa-data/public/shop/img/obzor_xiaomi_mi_box_s_4k_hdr_12.jpg</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="AK31" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -6611,86 +8480,86 @@
 </t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr">
         <is>
           <t>Cortex-A53, 4 ядра</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr">
         <is>
           <t>Mali-450</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>2 ГБ</t>
         </is>
       </c>
-      <c r="X31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>8 ГБ</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr">
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr">
         <is>
           <t>Bluetooth 4.2, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>USB 2.0 x 1, HDMI 2.0a x 1, аудиоразъем, питание</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr">
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr">
         <is>
           <t>95.25 × 95.25 × 16.7 мм</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AW31" t="inlineStr">
         <is>
           <t>147 г</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AX31" t="inlineStr">
         <is>
           <t>тв-приставка, пульт дистанционного управления, адаптер питания, кабель HDMI, батарея х 2 шт., руководство пользователя</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AY31" t="inlineStr">
         <is>
           <t>Android 8.1 Oreo</t>
         </is>
       </c>
-      <c r="AG31" t="inlineStr">
+      <c r="AZ31" t="inlineStr">
         <is>
           <t>4K UHD (3840 x 2160)</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr">
+      <c r="BA31" t="inlineStr">
         <is>
           <t>4K @ 60 кадров в секунду, VP9, ​​H.264, MPEG1 / 2/4, VC-1, Real8 / 9/10</t>
         </is>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="BB31" t="inlineStr">
         <is>
           <t>Dolby, DTS</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
+      <c r="BC31" t="inlineStr">
         <is>
           <t>RM, MOV, VOB, AVI, MKV, TS, Mp4, 3D</t>
         </is>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="BD31" t="inlineStr">
         <is>
           <t>MP3, APE, Flac</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="BE31" t="inlineStr">
         <is>
           <t>JPG, BMP, GIF, PNG, TIF</t>
         </is>
@@ -6709,71 +8578,156 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>ТВ-приставка Xiaomi Mi Box S 4K HDR (MDZ-22-AB) русская версия</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>9567</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36999/36999.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36999/36999.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36995/36995.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36995/36995.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36996/36996.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36996/36996.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37000/37000.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37000/37000.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36997/36997.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36997/36997.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36998/36998.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36998/36998.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37001/37001.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37001/37001.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37002/37002.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37002/37002.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E32" t="b">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36999/36999.970.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36999/36999.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36995/36995.970.jpg</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36995/36995.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36996/36996.970.jpg</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36996/36996.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37000/37000.970.jpg</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37000/37000.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36997/36997.970.jpg</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36997/36997.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36998/36998.970.jpg</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/36998/36998.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37001/37001.970.jpg</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37001/37001.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37002/37002.970.jpg</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/55/92/9255/images/37002/37002.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="b">
         <v>0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="X32" t="n">
         <v>5180</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="Y32" t="n">
+        <v>6990</v>
+      </c>
+      <c r="Z32" t="inlineStr">
         <is>
           <t>Быстрый и высокопроизводительный медиаплеер с поддержкой 4K и HDR. Работает на Android 8.1 2 Гб оперативки + 8 Гб места для хранения. Доступ к огромному количеству контента. Премиальный звук Dolby и DTS. Встроенный Google Ассистент и Chromecast. Легкое подключение, а также двухдиапазонный Wi-Fi.</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>Да</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="AI32" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="AJ32" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 ТВ-приставка Xiaomi Mi Box S 4K HDR (MDZ-22-AB) EAC
@@ -6811,7 +8765,7 @@
 https://unotechno.ru/wa-data/public/shop/img/obzor_xiaomi_mi_box_s_4k_hdr_12.jpg</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="AK32" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -6853,86 +8807,86 @@
 </t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr">
         <is>
           <t>Cortex-A53, 4 ядра</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr">
         <is>
           <t>Mali-450</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>2 ГБ</t>
         </is>
       </c>
-      <c r="X32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>8 ГБ</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr">
         <is>
           <t>Bluetooth 4.2, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>USB 2.0 x 1, HDMI 2.0a x 1, аудиоразъем, питание</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr">
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr">
         <is>
           <t>95.25 × 95.25 × 16.7 мм</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AW32" t="inlineStr">
         <is>
           <t>147 г</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AX32" t="inlineStr">
         <is>
           <t>тв-приставка, пульт дистанционного управления, адаптер питания, кабель HDMI, батарея х 2 шт., руководство пользователя</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AY32" t="inlineStr">
         <is>
           <t>Android 8.1 Oreo</t>
         </is>
       </c>
-      <c r="AG32" t="inlineStr">
+      <c r="AZ32" t="inlineStr">
         <is>
           <t>4K UHD (3840 x 2160)</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr">
+      <c r="BA32" t="inlineStr">
         <is>
           <t>4K @ 60 кадров в секунду, VP9, ​​H.264, MPEG1 / 2/4, VC-1, Real8 / 9/10</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="BB32" t="inlineStr">
         <is>
           <t>Dolby, DTS</t>
         </is>
       </c>
-      <c r="AJ32" t="inlineStr">
+      <c r="BC32" t="inlineStr">
         <is>
           <t>RM, MOV, VOB, AVI, MKV, TS, Mp4, 3D</t>
         </is>
       </c>
-      <c r="AK32" t="inlineStr">
+      <c r="BD32" t="inlineStr">
         <is>
           <t>MP3, APE, Flac</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="BE32" t="inlineStr">
         <is>
           <t>JPG, BMP, GIF, PNG, TIF</t>
         </is>
@@ -6951,67 +8905,152 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>ТВ-приставка Xiaomi Mi Box S MDZ-22-AB Black (Черный) Global Version</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>6718</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>[{'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39881/39881.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39881/39881.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39883/39883.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39883/39883.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39888/39888.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39888/39888.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39887/39887.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39887/39887.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39884/39884.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39884/39884.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39886/39886.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39886/39886.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39885/39885.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39885/39885.970.jpg'}, {'small_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39882/39882.55x0.jpg', 'orig_url': 'https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39882/39882.970.jpg'}]</t>
-        </is>
-      </c>
-      <c r="E33" t="b">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39881/39881.970.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39881/39881.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39883/39883.970.jpg</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39883/39883.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39888/39888.970.jpg</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39888/39888.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39887/39887.970.jpg</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39887/39887.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39884/39884.970.jpg</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39884/39884.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39886/39886.970.jpg</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39886/39886.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39885/39885.970.jpg</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39885/39885.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39882/39882.970.jpg</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>https://unotechno.ru/wa-data/public/shop/products/76/64/6476/images/39882/39882.55x0.jpg</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="b">
         <v>0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="X33" t="n">
         <v>6830</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="Y33" t="n">
+        <v>6990</v>
+      </c>
+      <c r="Z33" t="inlineStr">
         <is>
           <t>Быстрый и высокопроизводительный медиаплеер с поддержкой 4K и HDR. Работает на Android 8.1 2 Гб оперативки + 8 Гб места для хранения. Доступ к огромному количеству контента. Премиальный звук Dolby и DTS. Встроенный Google Ассистент и Chromecast. Легкое подключение, а также двухдиапазонный Wi-Fi.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>ТВ-приставки</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="AB33" t="inlineStr">
         <is>
           <t>2 года</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>1 год</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="AD33" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="AI33" t="inlineStr">
         <is>
           <t>[{'name': 'Самовывоз в Москве', 'values': ['ТЦ Горбушка - бесплатно']}, {'name': 'Курьером по Москве и области', 'values': ['В пределах МКАД - от 330 руб.', 'За МКАД до 30 км. - от 400 руб.', 'ТК СДЭК - от 320 руб.']}, {'name': 'По России', 'values': ['ТК СДЭК - от 320 руб.']}]</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>https://unotechno.ru/wa-data/public/shop/brands/87/87.150.png
 ТВ-приставка Xiaomi Mi Box S 4K HDR (MDZ-22-AB) Global Version
@@ -7049,7 +9088,7 @@
 https://unotechno.ru/wa-data/public/shop/img/obzor_xiaomi_mi_box_s_4k_hdr_12.jpg</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;div class="product-card__description"&gt;
 &lt;a class="product-card__brand" href="/brand/Xiaomi/"&gt;&lt;img alt="Xiaomi" src="/wa-data/public/shop/brands/87/87.150.png"&gt;&lt;/a&gt;&lt;div&gt;
@@ -7091,86 +9130,86 @@
 </t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr">
         <is>
           <t>Cortex-A53, 4 ядра</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr">
         <is>
           <t>Mali-450</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>2 ГБ</t>
         </is>
       </c>
-      <c r="X33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>8 ГБ</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr">
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr">
         <is>
           <t>Bluetooth 4.2, Wi-Fi (802.11) a/b/g/n/ac, 2.4 ГГц, 5 ГГц</t>
         </is>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>USB 2.0 x 1, HDMI 2.0a x 1, аудиоразъем, питание</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr">
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr">
         <is>
           <t>95.25 × 95.25 × 16.7 мм</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AW33" t="inlineStr">
         <is>
           <t>147 г</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AX33" t="inlineStr">
         <is>
           <t>тв-приставка, пульт дистанционного управления, адаптер питания, кабель HDMI, батарея х 2 шт., руководство пользователя</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AY33" t="inlineStr">
         <is>
           <t>Android 8.1 Oreo</t>
         </is>
       </c>
-      <c r="AG33" t="inlineStr">
+      <c r="AZ33" t="inlineStr">
         <is>
           <t>4K UHD (3840 x 2160)</t>
         </is>
       </c>
-      <c r="AH33" t="inlineStr">
+      <c r="BA33" t="inlineStr">
         <is>
           <t>4K @ 60 кадров в секунду, VP9, ​​H.264, MPEG1 / 2/4, VC-1, Real8 / 9/10</t>
         </is>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="BB33" t="inlineStr">
         <is>
           <t>Dolby, DTS</t>
         </is>
       </c>
-      <c r="AJ33" t="inlineStr">
+      <c r="BC33" t="inlineStr">
         <is>
           <t>RM, MOV, VOB, AVI, MKV, TS, Mp4, 3D</t>
         </is>
       </c>
-      <c r="AK33" t="inlineStr">
+      <c r="BD33" t="inlineStr">
         <is>
           <t>MP3, APE, Flac</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="BE33" t="inlineStr">
         <is>
           <t>JPG, BMP, GIF, PNG, TIF</t>
         </is>
